--- a/Data/EC/NIT-9013949636.xlsx
+++ b/Data/EC/NIT-9013949636.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A42E976-E7D5-42DD-9609-DA4A76156658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B2BD26-AD77-481B-B96B-91EABF706D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13E0F84A-023D-4FD9-80EF-9061CB65701D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8994CC1-D3A1-4AD8-8907-2F604B64A461}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="74">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,178 +71,160 @@
     <t>JUAN MANUEL SIMANCAS PATERNINA</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1047437191</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO BANQUEZ ROSALES</t>
+  </si>
+  <si>
+    <t>1001971265</t>
+  </si>
+  <si>
+    <t>FREDDY ENRIQUE PERIÑAN VALIENTE</t>
+  </si>
+  <si>
+    <t>45553433</t>
+  </si>
+  <si>
+    <t>YURIS DEL CARMEN HERNANDEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>1049534308</t>
+  </si>
+  <si>
+    <t>MARLON PEÑA PEREZ</t>
+  </si>
+  <si>
+    <t>1048602111</t>
+  </si>
+  <si>
+    <t>KATHERINE MONTES VILLADIEGO</t>
+  </si>
+  <si>
+    <t>1047404091</t>
+  </si>
+  <si>
+    <t>YESSICA PATRICIA GUERRERO SAYAS</t>
+  </si>
+  <si>
+    <t>1128049981</t>
+  </si>
+  <si>
+    <t>ADRIANA GARCIA ESPINOZA</t>
+  </si>
+  <si>
+    <t>22808749</t>
+  </si>
+  <si>
+    <t>JESSICA PADILLA SUAREZ</t>
+  </si>
+  <si>
+    <t>73169144</t>
+  </si>
+  <si>
+    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
+  </si>
+  <si>
+    <t>23140603</t>
+  </si>
+  <si>
+    <t>KARINA ESTER GONZALEZ GUERRERO</t>
+  </si>
+  <si>
+    <t>1049936250</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GONZALEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1002196472</t>
+  </si>
+  <si>
+    <t>BRANDOL CASTRO JULIO</t>
+  </si>
+  <si>
+    <t>72044126</t>
+  </si>
+  <si>
+    <t>JAIME JOSE RINCON GARCIA</t>
+  </si>
+  <si>
+    <t>45526069</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA SALCEDO SANCHEZ</t>
+  </si>
+  <si>
+    <t>1143415145</t>
+  </si>
+  <si>
+    <t>ROIBER ESTYCK ARIZA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>1050959404</t>
+  </si>
+  <si>
+    <t>DANIEL SOTO URANGO</t>
+  </si>
+  <si>
+    <t>1047508192</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA MORALES RAMIREZ</t>
+  </si>
+  <si>
+    <t>1048607144</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES BENITEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1235043608</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL AROCA TORRES</t>
+  </si>
+  <si>
+    <t>1075671260</t>
+  </si>
+  <si>
+    <t>JOHN ALEXANDER GRANADOS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1007978909</t>
+  </si>
+  <si>
+    <t>GERALDINE PINZON MAYORCA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6290080</t>
+  </si>
+  <si>
+    <t>DONALDO ALBERTO BENAVIDES LUGO</t>
+  </si>
+  <si>
+    <t>1007842245</t>
+  </si>
+  <si>
+    <t>JULIO CESAR SILGADO MALDONADO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1047437191</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO BANQUEZ ROSALES</t>
-  </si>
-  <si>
-    <t>1001971265</t>
-  </si>
-  <si>
-    <t>FREDDY ENRIQUE PERIÑAN VALIENTE</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>45553433</t>
-  </si>
-  <si>
-    <t>YURIS DEL CARMEN HERNANDEZ BUELVAS</t>
-  </si>
-  <si>
-    <t>1049534308</t>
-  </si>
-  <si>
-    <t>MARLON PEÑA PEREZ</t>
-  </si>
-  <si>
-    <t>1048602111</t>
-  </si>
-  <si>
-    <t>KATHERINE MONTES VILLADIEGO</t>
-  </si>
-  <si>
-    <t>1047404091</t>
-  </si>
-  <si>
-    <t>YESSICA PATRICIA GUERRERO SAYAS</t>
-  </si>
-  <si>
-    <t>1128049981</t>
-  </si>
-  <si>
-    <t>ADRIANA GARCIA ESPINOZA</t>
-  </si>
-  <si>
-    <t>22808749</t>
-  </si>
-  <si>
-    <t>JESSICA PADILLA SUAREZ</t>
-  </si>
-  <si>
-    <t>73169144</t>
-  </si>
-  <si>
-    <t>OSCAR SAMUEL CANTILLO ROJAS</t>
-  </si>
-  <si>
-    <t>23140603</t>
-  </si>
-  <si>
-    <t>KARINA ESTER GONZALEZ GUERRERO</t>
-  </si>
-  <si>
-    <t>1049936250</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS GONZALEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1047460299</t>
-  </si>
-  <si>
-    <t>TATIANA VANESSA SANCHEZ DEL REAL</t>
-  </si>
-  <si>
-    <t>1002196472</t>
-  </si>
-  <si>
-    <t>BRANDOL CASTRO JULIO</t>
-  </si>
-  <si>
-    <t>72044126</t>
-  </si>
-  <si>
-    <t>JAIME JOSE RINCON GARCIA</t>
-  </si>
-  <si>
-    <t>45526069</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA SALCEDO SANCHEZ</t>
-  </si>
-  <si>
-    <t>1143415145</t>
-  </si>
-  <si>
-    <t>ROIBER ESTYCK ARIZA GUTIERREZ</t>
-  </si>
-  <si>
-    <t>1050959404</t>
-  </si>
-  <si>
-    <t>DANIEL SOTO URANGO</t>
-  </si>
-  <si>
-    <t>1047508192</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA MORALES RAMIREZ</t>
-  </si>
-  <si>
-    <t>1002186434</t>
-  </si>
-  <si>
-    <t>ELVIA PATRICIA SALAS NAVARRO</t>
-  </si>
-  <si>
-    <t>1048607144</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES BENITEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>1235043608</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL AROCA TORRES</t>
-  </si>
-  <si>
-    <t>1075671260</t>
-  </si>
-  <si>
-    <t>JOHN ALEXANDER GRANADOS RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1007978909</t>
-  </si>
-  <si>
-    <t>GERALDINE PINZON MAYORCA</t>
-  </si>
-  <si>
-    <t>1001972395</t>
-  </si>
-  <si>
-    <t>JEFRY JOSE PALOMINO GARCES</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>6290080</t>
-  </si>
-  <si>
-    <t>DONALDO ALBERTO BENAVIDES LUGO</t>
-  </si>
-  <si>
-    <t>1007842245</t>
-  </si>
-  <si>
-    <t>JULIO CESAR SILGADO MALDONADO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,7 +323,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -354,9 +338,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -556,23 +538,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +582,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6A201D-8D5E-DBED-0C4A-C2C887084319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBF7089-0855-2931-11D9-5708C3F7BF95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B55AD5F-E115-4F66-B4C1-C9D58C40372A}">
-  <dimension ref="B2:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A929E3D-6556-444C-AD7F-C53A9F6CD179}">
+  <dimension ref="B2:J141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1032,7 +1014,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1077,7 +1059,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1109,12 +1091,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6134674</v>
+        <v>6832800</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1125,14 +1107,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -1162,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1199,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>56940</v>
@@ -1222,13 +1204,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1245,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1268,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1291,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1314,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
@@ -1337,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1360,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
@@ -1383,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1406,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1429,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1452,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>24674</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
         <v>1423500</v>
@@ -1475,10 +1457,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>11</v>
@@ -1498,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>56940</v>
@@ -1521,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>56940</v>
@@ -1544,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1567,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>11</v>
@@ -1590,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1613,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1636,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1659,10 +1641,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
@@ -1679,16 +1661,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1705,13 +1687,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1728,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F40" s="18">
         <v>56940</v>
@@ -1751,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1774,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1797,13 +1779,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
@@ -1820,13 +1802,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1843,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F45" s="18">
         <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1866,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F46" s="18">
         <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1889,19 +1871,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F47" s="18">
         <v>56940</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,19 +1894,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F48" s="18">
         <v>56940</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1935,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F49" s="18">
         <v>56940</v>
@@ -1964,7 +1946,7 @@
         <v>31</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F50" s="18">
         <v>56940</v>
@@ -1981,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F51" s="18">
         <v>56940</v>
@@ -2004,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F52" s="18">
         <v>56940</v>
@@ -2027,19 +2009,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F53" s="18">
         <v>56940</v>
       </c>
       <c r="G53" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2050,19 +2032,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F54" s="18">
         <v>56940</v>
       </c>
       <c r="G54" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2073,19 +2055,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F55" s="18">
         <v>56940</v>
       </c>
       <c r="G55" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2096,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F56" s="18">
         <v>56940</v>
       </c>
       <c r="G56" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2119,13 +2101,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F57" s="18">
         <v>56940</v>
@@ -2142,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>56940</v>
@@ -2165,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
         <v>56940</v>
@@ -2188,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
         <v>56940</v>
@@ -2211,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>56940</v>
@@ -2231,16 +2213,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>56940</v>
@@ -2257,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>56940</v>
@@ -2280,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>56940</v>
@@ -2303,19 +2285,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2349,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F67" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2372,19 +2354,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F68" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2395,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F69" s="18">
         <v>56940</v>
@@ -2418,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>56940</v>
@@ -2441,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F71" s="18">
         <v>56940</v>
@@ -2464,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F72" s="18">
         <v>56940</v>
@@ -2487,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F73" s="18">
         <v>56940</v>
@@ -2510,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
         <v>56940</v>
@@ -2533,13 +2515,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F75" s="18">
         <v>56940</v>
@@ -2556,13 +2538,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F76" s="18">
         <v>56940</v>
@@ -2579,13 +2561,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F77" s="18">
         <v>56940</v>
@@ -2602,13 +2584,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F78" s="18">
         <v>56940</v>
@@ -2625,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F79" s="18">
         <v>56940</v>
@@ -2648,13 +2630,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F80" s="18">
         <v>56940</v>
@@ -2671,19 +2653,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F81" s="18">
         <v>56940</v>
       </c>
       <c r="G81" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2700,13 +2682,13 @@
         <v>47</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F82" s="18">
         <v>56940</v>
       </c>
       <c r="G82" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2717,19 +2699,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F83" s="18">
         <v>56940</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2740,19 +2722,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F84" s="18">
         <v>56940</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2763,13 +2745,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F85" s="18">
         <v>56940</v>
@@ -2783,16 +2765,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F86" s="18">
         <v>56940</v>
@@ -2809,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F87" s="18">
         <v>56940</v>
@@ -2832,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F88" s="18">
         <v>56940</v>
@@ -2855,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F89" s="18">
         <v>56940</v>
@@ -2878,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F90" s="18">
         <v>56940</v>
@@ -2901,13 +2883,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F91" s="18">
         <v>56940</v>
@@ -2924,13 +2906,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F92" s="18">
         <v>56940</v>
@@ -2947,19 +2929,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F93" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G93" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2970,19 +2952,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F94" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2993,19 +2975,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3016,19 +2998,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3039,13 +3021,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
         <v>56940</v>
@@ -3062,13 +3044,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F98" s="18">
         <v>56940</v>
@@ -3085,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F99" s="18">
         <v>56940</v>
@@ -3108,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F100" s="18">
         <v>56940</v>
@@ -3131,13 +3113,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F101" s="18">
         <v>56940</v>
@@ -3154,13 +3136,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F102" s="18">
         <v>56940</v>
@@ -3177,13 +3159,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F103" s="18">
         <v>56940</v>
@@ -3200,13 +3182,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F104" s="18">
         <v>56940</v>
@@ -3223,13 +3205,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F105" s="18">
         <v>56940</v>
@@ -3246,13 +3228,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F106" s="18">
         <v>56940</v>
@@ -3269,13 +3251,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F107" s="18">
         <v>56940</v>
@@ -3292,13 +3274,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F108" s="18">
         <v>56940</v>
@@ -3315,13 +3297,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D109" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F109" s="18">
         <v>56940</v>
@@ -3335,16 +3317,16 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D110" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F110" s="18">
         <v>56940</v>
@@ -3361,13 +3343,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F111" s="18">
         <v>56940</v>
@@ -3384,13 +3366,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F112" s="18">
         <v>56940</v>
@@ -3407,13 +3389,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F113" s="18">
         <v>56940</v>
@@ -3430,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F114" s="18">
         <v>56940</v>
@@ -3453,13 +3435,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F115" s="18">
         <v>56940</v>
@@ -3476,13 +3458,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F116" s="18">
         <v>56940</v>
@@ -3496,16 +3478,16 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F117" s="18">
         <v>56940</v>
@@ -3519,16 +3501,16 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F118" s="18">
         <v>56940</v>
@@ -3542,16 +3524,16 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F119" s="18">
         <v>56940</v>
@@ -3565,16 +3547,16 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F120" s="18">
         <v>56940</v>
@@ -3591,13 +3573,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F121" s="18">
         <v>56940</v>
@@ -3614,13 +3596,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F122" s="18">
         <v>56940</v>
@@ -3637,13 +3619,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F123" s="18">
         <v>56940</v>
@@ -3656,56 +3638,309 @@
       <c r="J123" s="20"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G124" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="26"/>
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F124" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G125" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G126" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G127" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G128" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="32"/>
-      <c r="H129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G129" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" s="32"/>
-      <c r="H130" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F130" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G130" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G131" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G132" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F133" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G133" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F134" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F135" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G135" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="26"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="32"/>
+      <c r="H140" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="32"/>
+      <c r="H141" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="H140:J140"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
